--- a/learnings/900.xlsx
+++ b/learnings/900.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dump-code\cp-algorithms\learnings\900\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dump-code\cp-algorithms\learnings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406E5522-378A-413F-85CF-EFC18D33B64D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB492371-7239-4BAC-81BA-95D9522197B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>900 Rated Problems</t>
   </si>
@@ -109,6 +109,27 @@
   </si>
   <si>
     <t>check the constraints. Run the algorithm for 100 times</t>
+  </si>
+  <si>
+    <t>A. Simple palindrome</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/2005/A</t>
+  </si>
+  <si>
+    <t>use different characters as much as you can and keep the same characters together</t>
+  </si>
+  <si>
+    <t>(good question must try)</t>
+  </si>
+  <si>
+    <t>A. Split the multiset</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1988/A</t>
+  </si>
+  <si>
+    <t>for each step try to get the maximum 1's possible</t>
   </si>
 </sst>
 </file>
@@ -203,7 +224,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +244,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +284,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -284,6 +311,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -572,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -584,18 +614,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:4" s="4" customFormat="1" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -692,6 +722,31 @@
       </c>
       <c r="D11" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -710,8 +765,10 @@
     <hyperlink ref="B9" r:id="rId9" xr:uid="{26945762-9C55-4D33-BE7B-3A84FEA25104}"/>
     <hyperlink ref="C9" r:id="rId10" xr:uid="{5C1C5B72-BD00-493D-A4B8-FE99E1C29B16}"/>
     <hyperlink ref="B11" r:id="rId11" xr:uid="{52145BF6-66EB-42E1-8215-5D7AB1259895}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{3482F964-B7E5-465D-A3EB-C203EAEE7F01}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{AFA78198-BFCA-4432-8785-7C4FD1DE4571}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>